--- a/SurfaceWebApp/threadsData.xlsx
+++ b/SurfaceWebApp/threadsData.xlsx
@@ -235,7 +235,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>29.0016392</v>
+        <v>4.3592671</v>
       </c>
     </row>
     <row r="3">
@@ -243,7 +243,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>17.0797646</v>
+        <v>2.2965432</v>
       </c>
     </row>
     <row r="4">
@@ -251,7 +251,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>13.2818453</v>
+        <v>1.7778111</v>
       </c>
     </row>
     <row r="5">
@@ -259,7 +259,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>10.9927808</v>
+        <v>1.4624452</v>
       </c>
     </row>
     <row r="6">
@@ -267,7 +267,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>10.0265235</v>
+        <v>1.3849251</v>
       </c>
     </row>
     <row r="7">
@@ -275,7 +275,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>9.6909388</v>
+        <v>1.2584035</v>
       </c>
     </row>
     <row r="8">
@@ -283,7 +283,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>8.737367</v>
+        <v>0.9878287</v>
       </c>
     </row>
     <row r="9">
@@ -291,7 +291,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>8.68378</v>
+        <v>1.0214303</v>
       </c>
     </row>
     <row r="10">
@@ -299,7 +299,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>8.9182501</v>
+        <v>1.0016802</v>
       </c>
     </row>
     <row r="11">
@@ -307,7 +307,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>9.814392</v>
+        <v>0.9623184</v>
       </c>
     </row>
     <row r="12">
@@ -315,7 +315,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>8.7545437</v>
+        <v>0.900429</v>
       </c>
     </row>
     <row r="13">
@@ -323,7 +323,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>9.1976778</v>
+        <v>0.8887501</v>
       </c>
     </row>
     <row r="14">
@@ -331,7 +331,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>9.4442651</v>
+        <v>0.8673264</v>
       </c>
     </row>
     <row r="15">
@@ -339,7 +339,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>8.4509861</v>
+        <v>0.8209252</v>
       </c>
     </row>
     <row r="16">
@@ -347,7 +347,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>7.8273221</v>
+        <v>0.889627</v>
       </c>
     </row>
     <row r="17"/>

--- a/SurfaceWebApp/threadsData.xlsx
+++ b/SurfaceWebApp/threadsData.xlsx
@@ -235,7 +235,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>4.3592671</v>
+        <v>0.2964491</v>
       </c>
     </row>
     <row r="3">
@@ -243,7 +243,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>2.2965432</v>
+        <v>0.1317522</v>
       </c>
     </row>
     <row r="4">
@@ -251,7 +251,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>1.7778111</v>
+        <v>0.0945961</v>
       </c>
     </row>
     <row r="5">
@@ -259,7 +259,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>1.4624452</v>
+        <v>0.0893123</v>
       </c>
     </row>
     <row r="6">
@@ -267,7 +267,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>1.3849251</v>
+        <v>0.0652021</v>
       </c>
     </row>
     <row r="7">
@@ -275,7 +275,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>1.2584035</v>
+        <v>0.0570333</v>
       </c>
     </row>
     <row r="8">
@@ -283,7 +283,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.9878287</v>
+        <v>0.0469854</v>
       </c>
     </row>
     <row r="9">
@@ -291,7 +291,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>1.0214303</v>
+        <v>0.0570129</v>
       </c>
     </row>
     <row r="10">
@@ -299,7 +299,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>1.0016802</v>
+        <v>0.0510792</v>
       </c>
     </row>
     <row r="11">
@@ -307,7 +307,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0.9623184</v>
+        <v>0.0495003</v>
       </c>
     </row>
     <row r="12">
@@ -315,7 +315,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0.900429</v>
+        <v>0.0508095</v>
       </c>
     </row>
     <row r="13">
@@ -323,7 +323,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>0.8887501</v>
+        <v>0.0548866</v>
       </c>
     </row>
     <row r="14">
@@ -331,7 +331,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>0.8673264</v>
+        <v>0.0495278</v>
       </c>
     </row>
     <row r="15">
@@ -339,7 +339,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>0.8209252</v>
+        <v>0.0467032</v>
       </c>
     </row>
     <row r="16">
@@ -347,7 +347,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>0.889627</v>
+        <v>0.0637857</v>
       </c>
     </row>
     <row r="17"/>

--- a/SurfaceWebApp/threadsData.xlsx
+++ b/SurfaceWebApp/threadsData.xlsx
@@ -235,7 +235,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2964491</v>
+        <v>0.2454198</v>
       </c>
     </row>
     <row r="3">
@@ -243,7 +243,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.1317522</v>
+        <v>0.1208204</v>
       </c>
     </row>
     <row r="4">
@@ -251,7 +251,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0945961</v>
+        <v>0.0857499</v>
       </c>
     </row>
     <row r="5">
@@ -259,7 +259,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0893123</v>
+        <v>0.0792897</v>
       </c>
     </row>
     <row r="6">
@@ -267,7 +267,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0652021</v>
+        <v>0.0802818</v>
       </c>
     </row>
     <row r="7">
@@ -275,7 +275,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0570333</v>
+        <v>0.0580335</v>
       </c>
     </row>
     <row r="8">
@@ -283,7 +283,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0469854</v>
+        <v>0.0517779</v>
       </c>
     </row>
     <row r="9">
@@ -291,7 +291,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0570129</v>
+        <v>0.0575816</v>
       </c>
     </row>
     <row r="10">
@@ -299,7 +299,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0510792</v>
+        <v>0.0547024</v>
       </c>
     </row>
     <row r="11">
@@ -307,7 +307,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0495003</v>
+        <v>0.0544101</v>
       </c>
     </row>
     <row r="12">
@@ -315,7 +315,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0508095</v>
+        <v>0.0543628</v>
       </c>
     </row>
     <row r="13">
@@ -323,7 +323,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0548866</v>
+        <v>0.0608906</v>
       </c>
     </row>
     <row r="14">
@@ -331,7 +331,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0495278</v>
+        <v>0.0561149</v>
       </c>
     </row>
     <row r="15">
@@ -339,7 +339,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0467032</v>
+        <v>0.1072853</v>
       </c>
     </row>
     <row r="16">
@@ -347,7 +347,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0637857</v>
+        <v>0.074897</v>
       </c>
     </row>
     <row r="17"/>
